--- a/ancient_glass/高钾_聚类.xlsx
+++ b/ancient_glass/高钾_聚类.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,164 +436,176 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硅(SiO2)</t>
+          <t>Cultural relic sampling site</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>氧化钠(Na2O)</t>
+          <t>SiO2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>氧化钾(K2O)</t>
+          <t>Na2O</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>氧化钙(CaO)</t>
+          <t>K2O</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>氧化镁(MgO)</t>
+          <t>CaO</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>氧化铝(Al2O3)</t>
+          <t>MgO</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>氧化铁(Fe2O3)</t>
+          <t>Al2O3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>氧化铜(CuO)</t>
+          <t>Fe2O3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>氧化铅(PbO)</t>
+          <t>CuO</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>氧化钡(BaO)</t>
+          <t>PbO</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>五氧化二磷(P2O5)</t>
+          <t>BaO</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>氧化锶(SrO)</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>氧化锡(SnO2)</t>
+          <t>SrO</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硫(SO2)</t>
+          <t>SnO</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>SO2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>分类</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>69.33</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>9.99</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>6.32</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.87</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>3.93</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1.74</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>3.87</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.17</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.39</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03 parts 1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>87.05</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>5.19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>2.01</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>4.06</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.78</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.25</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.66</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -603,279 +615,309 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03 parts 2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>61.71</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>12.37</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>5.87</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.11</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>5.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>2.16</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>5.09</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1.41</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>2.86</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.7</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>65.88</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>9.67</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>7.12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.56</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>6.44</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>2.06</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>2.18</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.79</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.36</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>61.58</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>10.95</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>7.35</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.77</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>2.62</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>3.27</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.06</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.47</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06 parts 1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>67.65000000000001</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>7.37</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.98</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>11.15</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>2.39</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>2.51</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>1.38</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>4.18</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.11</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06 parts 2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>59.81</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>7.68</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>5.41</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.73</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>10.05</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>6.04</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>2.18</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.35</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.97</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>4.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.12</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>92.63</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>1.07</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.98</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.17</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>3.24</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.61</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
@@ -885,44 +927,49 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>95.02</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.59</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.62</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.32</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.32</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>1.55</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.35</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
@@ -932,35 +979,40 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>96.77</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.92</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.21</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.26</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.84</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -979,44 +1031,49 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>94.29000000000001</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.01</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.72</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.46</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.29</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>1.65</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.15</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -1026,44 +1083,49 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>59.01</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>2.86</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>12.53</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>6.16</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2.88</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>4.73</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1.27</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
@@ -1071,46 +1133,51 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>62.47</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>3.38</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>12.28</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>8.23</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.66</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>9.23</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.47</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1.62</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.16</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -1118,78 +1185,88 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>65.18000000000001</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>2.1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>14.52</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>8.27</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.52</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>6.18</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.42</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>1.07</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.11</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.04</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>79.45999999999999</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>9.42</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.53</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3.05</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
@@ -1200,58 +1277,63 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.36</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>2.36</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>76.68000000000001</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>4.71</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.22</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>6.19</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>2.37</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>3.28</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>1.97</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>1.1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -1261,44 +1343,49 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>92.34999999999999</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.74</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>1.66</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.64</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>3.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.35</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.55</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.21</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -1308,44 +1395,49 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>92.72</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.54</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2.51</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.2</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>1.54</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.36</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
@@ -1353,6 +1445,9 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>0</v>
       </c>
     </row>
